--- a/ML/WWScan/Viral_activity_overlap_time_221_counties_LOESS.xlsx
+++ b/ML/WWScan/Viral_activity_overlap_time_221_counties_LOESS.xlsx
@@ -1,21 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/ML/WWScan/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB9493-6110-6047-9E3C-7C4E151DE3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>counties_name</t>
+  </si>
+  <si>
+    <t>No_of_days_VHigh_Virus_concen</t>
+  </si>
+  <si>
+    <t>No_of_days_High_Virus_concen</t>
+  </si>
+  <si>
+    <t>No_of_days_Mod_Virus_concen</t>
+  </si>
+  <si>
+    <t>No_of_days_Low_Virus_concen</t>
+  </si>
+  <si>
+    <t>No_of_days_Mi_Virus_concen</t>
+  </si>
+  <si>
+    <t>No_of_days_VHigh_Covid_case</t>
+  </si>
+  <si>
+    <t>No_of_days_High_Covid_case</t>
+  </si>
+  <si>
+    <t>No_of_days_Mod_Covid_case</t>
+  </si>
+  <si>
+    <t>No_of_days_Low_Covid_case</t>
+  </si>
+  <si>
+    <t>No_of_days_Mi_Covid_case</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +118,2368 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>0.53439153439153442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66007067137809183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21900826446280991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31294964028776978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51020408163265307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30638297872340425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19550982226379796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38356164383561642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3968253968253968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40163934426229508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55324211778703158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7733100233100233</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59351620947630923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72352941176470587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75689744924518476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75851703406813631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66878980891719741</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73527037933817596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45981308411214955</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61367837338262476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78548421730727935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64107883817427391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58139534883720934</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59904534606205251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79132815259625577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61643835616438358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54767184035476724</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87254901960784315</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64082687338501287</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.36160714285714285</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41434262948207173</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78452497551420175</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64524421593830339</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.22272727272727272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26286353467561524</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46436781609195404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77394807520143238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5961081081081081</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.81538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.220795892169448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11447084233261338</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.13552361396303902</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.17940876656472987</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17659574468085107</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21338383838383837</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.1558441558441558E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.11207970112079702</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49830124575311441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34883720930232559</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.9085841694537344E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15843857634902411</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43042671614100186</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43632958801498128</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.51143451143451146</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1181894383906119</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3436619718309859</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.8445595854922283E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.58461538461538465</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.41139240506329117</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22911051212938005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79710144927536231</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36007130124777181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.4681933842239186</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.22588235294117648</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.5178997613365162E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5485498108448932E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21321961620469082</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.16071428571428573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54098360655737709</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.86178861788617889</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.47085201793721976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.50336826347305386</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.10283018867924529</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.11815734370326055</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34462444771723122</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.55895196506550215</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.8576122672508218E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14427860696517414</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19884726224783861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58699472759226712</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48342541436464087</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23931623931623933</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.5934959349593496</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.68608414239482196</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.72527472527472525</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25964010282776351</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.50144927536231887</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83870967741935487</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94896777927841014</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.23584905660377359</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.57957244655581952</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.51898734177215189</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.29962546816479402</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.56052631578947365</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.3605577689243028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.34146341463414637</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.34758620689655173</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.50267379679144386</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.6964285714285714</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.71219758064516125</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60025706940874035</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.55836575875486383</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.32510410469958356</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.75827814569536423</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.32053345596688892</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.4315245478036176</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.61990950226244346</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.70270270270270274</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.58565737051792832</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.65421853388658369</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.60224719101123592</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.34564643799472294</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.41502890173410406</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.6816421378776143</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.70819672131147537</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.52825552825552824</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.61059907834101379</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.70320855614973266</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83486238532110091</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.57028112449799195</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.9997978572872448</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.4585987261146494E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.20297462817147857</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.54621309370988447</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.61043478260869566</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.62962962962962965</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.18682795698924731</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.56923076923076921</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.82582837723024638</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.38596491228070173</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.59147424511545288</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.21525885558583105</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.59828266419122766</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.9510703363914373E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.2125984251968504</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.20151133501259447</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.64442567567567566</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.59872611464968151</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.60732625813077712</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.64442231075697209</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.1184995737425405</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.80488766259361455</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.61076233183856499</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.11909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.19878997407087295</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.45171339563862928</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.50602409638554213</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.34782608695652173</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.35173642030276048</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.21509433962264152</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.50749464668094213</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.61928616155291172</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.62608695652173918</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.25350358143880414</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.79104477611940294</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.81404958677685946</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.58347676419965577</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.51604278074866305</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.74628593478680305</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.62371134020618557</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.3503893214682981</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.61369622475856012</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.5903814262023217</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.46182152713891444</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.43579766536964981</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.1855583543240974</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.42602495543672014</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.89404553415061294</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.45525291828793774</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.64086956521739136</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.77879038939519474</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.78454935622317601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.66397415185783526</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.60873287671232879</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.66696349065004457</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.59898045879354289</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.55147058823529416</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.84039466047591416</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.50399201596806387</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.29681978798586572</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.76234855545200375</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.67613636363636365</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.64862204724409445</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.73669972948602347</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.69990412272291469</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.603515625</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.12661789532920653</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.64615384615384619</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.60167364016736402</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.68559837728194728</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.80195258019525806</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.71364576154376291</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.55312954876273657</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.33237822349570201</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.40762205830698983</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.71504548635409382</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.84010152284263961</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.34723569350145489</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.46215556330659224</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.63346613545816732</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.41001747233546881</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.8503118503118503</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.42592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.76184210526315788</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.27235772357723576</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.32574031890660593</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>0.1291005291005291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29540636042402829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16804407713498623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25179856115107913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34693877551020408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16370439663236669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0327868852459017E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.399167162403331E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39650872817955113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73347214992191567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73346693386773543</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79706390328151988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25981308411214954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80036968576709799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69325714285714291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57676348547717837</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73643410852713176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39856801909307876</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70394973070017952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29315068493150687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37250554323725055</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53784860557768921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67776689520078359</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50642673521850901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74608501118568238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64189794091316021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25535135135135134</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.81857451403887693</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55441478439425051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.43934760448521915</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80851063829787229</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64935064935064934</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56911581569115821</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49716874292185731</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43604651162790697</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.40802675585284282</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4225028702640643</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.3079777365491651</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3707865168539326</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.34407484407484407</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48700754400670576</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.28169014084507044</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71632124352331605</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.45256410256410257</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.10759493670886076</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.30727762803234504</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13285024154589373</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29055258467023171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.48854961832061067</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69176470588235295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55489260143198094</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48675914249684743</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.45628997867803839</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.40119047619047621</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.24043715846994534</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.15040650406504066</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52017937219730936</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53031437125748504</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.61037735849056607</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.45587795393359259</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57731958762886593</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.72052401746724892</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.5750273822562979</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.53358208955223885</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.63256484149855907</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.13005272407732865</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10256410256410256</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.8455284552845527E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51779935275080902</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16452442159383032</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.12173913043478261</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.35867258344588077</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.90801886792452835</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.11401425178147269</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5189873417721518E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.14888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6315789473684209E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.30079681274900399</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.13821138211382114</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.2717241379310345</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.12433155080213903</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.15051020408163265</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.36995967741935482</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.6401028277634956E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.12354085603112841</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.28078524687685902</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.29317084387215453</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.23255813953488372</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.10407239819004525</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.6096096096096095E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.18924302788844621</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.11479944674965421</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.6179775280898875E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.2072072072072071E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.80738786279683372</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.31907514450867053</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.25714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.36117936117936117</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.11751152073732719</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.1162079510703364E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.24964625025267839</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.66242038216560506</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.82064741907261596</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.38189987163029526</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.86608695652173917</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.56577266922094505</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.51209677419354838</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.72642310960067968</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.4631578947368421</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.45559502664298401</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.88101725703905542</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.74007890461824088</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.16055045871559634</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.69641294838145229</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.76322418136020154</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.51266891891891897</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87716105550500456</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.57822663471413904</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.94521912350597614</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.72463768115942029</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.72467481277098933</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.77040358744394621</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.65363636363636368</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.14006024096385541</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.2134387351778656</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.46267281105990782</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.38201246660730187</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.86081370449678796</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.80400751408891669</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.55652173913043479</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.76362503892868261</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.7819237147595357</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.70495867768595044</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.73975044563279857</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.11531841652323579</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.53212425236349603</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.47680412371134023</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.57508342602892104</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.7655838454784899</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.28689883913764513</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.40110395584176634</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.6213266162888329</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.73885918003565065</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.47197898423817863</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.54863813229571989</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.64173913043478259</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.80530240265120134</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.55364806866952787</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.16316639741518579</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.36815068493150682</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.47462154942119322</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.51231945624468989</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.88786764705882348</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.67846778874056879</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.35528942115768464</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.2756183745583039</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.39235787511649578</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.50757575757575757</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.24114173228346455</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.33453561767357981</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.404296875</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.35453010692177828</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.33435897435897438</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.47698744769874479</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.27653820148749153</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.58856345885634587</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.34321157822191595</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.52692867540029109</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.28557784145176696</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.28890059711977523</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.47319804058782367</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.35406091370558374</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.49854510184287099</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.3751086012163336</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.47011952191235062</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.25800815375655212</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.16216216216216217</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.13756613756613756</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.21578947368421053</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.17073170731707318</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.19134396355353075</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.18849206349206349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4752-CE41-97A9-5C13255D93FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1173549712"/>
+        <c:axId val="1174227680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1173549712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174227680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174227680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173549712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5071C92E-8F64-0B47-B97B-428E9432698E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -109,7 +2525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +2557,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +2609,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,71 +2802,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="1" sqref="N1:N1048576 O1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>counties_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_VHigh_Virus_concen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_High_Virus_concen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Mod_Virus_concen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Low_Virus_concen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Mi_Virus_concen</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_VHigh_Covid_case</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_High_Covid_case</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Mod_Covid_case</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Low_Covid_case</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>No_of_days_Mi_Covid_case</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6001</v>
       </c>
@@ -448,8 +2880,16 @@
       <c r="K2">
         <v>372</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="N2">
+        <f>(B2+C2)/(B2+C2+D2+E2+F2)</f>
+        <v>0.53439153439153442</v>
+      </c>
+      <c r="O2">
+        <f>(G2+H2)/(G2+H2+I2+J2+K2)</f>
+        <v>0.1291005291005291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6013</v>
       </c>
@@ -483,8 +2923,16 @@
       <c r="K3">
         <v>834</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">(B3+C3)/(B3+C3+D3+E3+F3)</f>
+        <v>0.66007067137809183</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">(G3+H3)/(G3+H3+I3+J3+K3)</f>
+        <v>0.29540636042402829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6019</v>
       </c>
@@ -518,8 +2966,16 @@
       <c r="K4">
         <v>582</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.21900826446280991</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.16804407713498623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6023</v>
       </c>
@@ -553,8 +3009,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.31294964028776978</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.25179856115107913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6025</v>
       </c>
@@ -588,8 +3052,16 @@
       <c r="K6">
         <v>522</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.34693877551020408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6029</v>
       </c>
@@ -623,8 +3095,16 @@
       <c r="K7">
         <v>900</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6033</v>
       </c>
@@ -658,8 +3138,16 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.30638297872340425</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6059</v>
       </c>
@@ -693,8 +3181,16 @@
       <c r="K9">
         <v>688</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.19550982226379796</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.16370439663236669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6065</v>
       </c>
@@ -728,8 +3224,16 @@
       <c r="K10">
         <v>584</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.38356164383561642</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6071</v>
       </c>
@@ -763,8 +3267,16 @@
       <c r="K11">
         <v>686</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6079</v>
       </c>
@@ -798,8 +3310,16 @@
       <c r="K12">
         <v>521</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>8.0327868852459017E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6087</v>
       </c>
@@ -833,8 +3353,16 @@
       <c r="K13">
         <v>1437</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.55324211778703158</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>9.399167162403331E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8001</v>
       </c>
@@ -868,8 +3396,16 @@
       <c r="K14">
         <v>300</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.7733100233100233</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8003</v>
       </c>
@@ -903,8 +3439,16 @@
       <c r="K15">
         <v>102</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.59351620947630923</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.39650872817955113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8005</v>
       </c>
@@ -938,8 +3482,16 @@
       <c r="K16">
         <v>69</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.72352941176470587</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.61764705882352944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8013</v>
       </c>
@@ -973,8 +3525,16 @@
       <c r="K17">
         <v>390</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.75689744924518476</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.73347214992191567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8014</v>
       </c>
@@ -1008,8 +3568,16 @@
       <c r="K18">
         <v>206</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.75851703406813631</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.73346693386773543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8029</v>
       </c>
@@ -1043,8 +3611,16 @@
       <c r="K19">
         <v>157</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0.66878980891719741</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8031</v>
       </c>
@@ -1078,8 +3654,16 @@
       <c r="K20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.73527037933817596</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.79706390328151988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8035</v>
       </c>
@@ -1113,8 +3697,16 @@
       <c r="K21">
         <v>347</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.45981308411214955</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.25981308411214954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8037</v>
       </c>
@@ -1148,8 +3740,16 @@
       <c r="K22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.61367837338262476</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.80036968576709799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8039</v>
       </c>
@@ -1183,8 +3783,16 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="N23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8041</v>
       </c>
@@ -1218,8 +3826,16 @@
       <c r="K24">
         <v>991</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.78548421730727935</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.69325714285714291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8045</v>
       </c>
@@ -1253,8 +3869,16 @@
       <c r="K25">
         <v>45</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.64107883817427391</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.57676348547717837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8051</v>
       </c>
@@ -1288,8 +3912,16 @@
       <c r="K26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.73643410852713176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8067</v>
       </c>
@@ -1323,8 +3955,16 @@
       <c r="K27">
         <v>152</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.59904534606205251</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.39856801909307876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8069</v>
       </c>
@@ -1358,8 +3998,16 @@
       <c r="K28">
         <v>2953</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.79132815259625577</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.70394973070017952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8071</v>
       </c>
@@ -1393,8 +4041,16 @@
       <c r="K29">
         <v>198</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.29315068493150687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8077</v>
       </c>
@@ -1428,8 +4084,16 @@
       <c r="K30">
         <v>269</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.54767184035476724</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.37250554323725055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8085</v>
       </c>
@@ -1463,8 +4127,16 @@
       <c r="K31">
         <v>204</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.87254901960784315</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8087</v>
       </c>
@@ -1498,8 +4170,16 @@
       <c r="K32">
         <v>124</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.64082687338501287</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8089</v>
       </c>
@@ -1533,8 +4213,16 @@
       <c r="K33">
         <v>224</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.36160714285714285</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8097</v>
       </c>
@@ -1568,8 +4256,16 @@
       <c r="K34">
         <v>200</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.41434262948207173</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.53784860557768921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8101</v>
       </c>
@@ -1603,8 +4299,16 @@
       <c r="K35">
         <v>246</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0.78452497551420175</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.67776689520078359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8107</v>
       </c>
@@ -1638,8 +4342,16 @@
       <c r="K36">
         <v>117</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0.64524421593830339</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.50642673521850901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8111</v>
       </c>
@@ -1673,8 +4385,16 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="N37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8113</v>
       </c>
@@ -1708,8 +4428,16 @@
       <c r="K38">
         <v>73</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0.55909090909090908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8117</v>
       </c>
@@ -1743,8 +4471,16 @@
       <c r="K39">
         <v>159</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0.26286353467561524</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0.74608501118568238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8119</v>
       </c>
@@ -1778,8 +4514,16 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0.46436781609195404</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8123</v>
       </c>
@@ -1813,8 +4557,16 @@
       <c r="K41">
         <v>549</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.77394807520143238</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0.64189794091316021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>17031</v>
       </c>
@@ -1848,8 +4600,16 @@
       <c r="K42">
         <v>3183</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.5961081081081081</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0.25535135135135134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>29001</v>
       </c>
@@ -1883,8 +4643,16 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="N43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>29003</v>
       </c>
@@ -1918,8 +4686,16 @@
       <c r="K44">
         <v>24</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>29007</v>
       </c>
@@ -1953,8 +4729,16 @@
       <c r="K45">
         <v>133</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0.220795892169448</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0.6097560975609756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>29009</v>
       </c>
@@ -1988,8 +4772,16 @@
       <c r="K46">
         <v>47</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.11447084233261338</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>0.81857451403887693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>29011</v>
       </c>
@@ -2023,8 +4815,16 @@
       <c r="K47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>29019</v>
       </c>
@@ -2058,8 +4858,16 @@
       <c r="K48">
         <v>272</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.13552361396303902</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0.55441478439425051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>29021</v>
       </c>
@@ -2093,8 +4901,16 @@
       <c r="K49">
         <v>394</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.17940876656472987</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0.43934760448521915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>29023</v>
       </c>
@@ -2128,8 +4944,16 @@
       <c r="K50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.17659574468085107</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>0.80851063829787229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>29027</v>
       </c>
@@ -2163,8 +4987,16 @@
       <c r="K51">
         <v>166</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.21338383838383837</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0.46464646464646464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>29033</v>
       </c>
@@ -2198,8 +5030,16 @@
       <c r="K52">
         <v>146</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>4.1558441558441558E-2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>0.64935064935064934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>29043</v>
       </c>
@@ -2233,8 +5073,16 @@
       <c r="K53">
         <v>147</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.11207970112079702</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>0.56911581569115821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>29047</v>
       </c>
@@ -2268,8 +5116,16 @@
       <c r="K54">
         <v>303</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.49830124575311441</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>0.49716874292185731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>29069</v>
       </c>
@@ -2303,8 +5159,16 @@
       <c r="K55">
         <v>44</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>0.43604651162790697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>29071</v>
       </c>
@@ -2338,8 +5202,16 @@
       <c r="K56">
         <v>184</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>5.9085841694537344E-2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0.40802675585284282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>29077</v>
       </c>
@@ -2373,8 +5245,16 @@
       <c r="K57">
         <v>353</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.15843857634902411</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>0.4225028702640643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>29083</v>
       </c>
@@ -2408,8 +5288,16 @@
       <c r="K58">
         <v>49</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.43042671614100186</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>0.3079777365491651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>29091</v>
       </c>
@@ -2443,8 +5331,16 @@
       <c r="K59">
         <v>178</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.43632958801498128</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>0.3707865168539326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>29095</v>
       </c>
@@ -2478,8 +5374,16 @@
       <c r="K60">
         <v>174</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.51143451143451146</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>0.34407484407484407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>29097</v>
       </c>
@@ -2513,8 +5417,16 @@
       <c r="K61">
         <v>374</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.1181894383906119</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>0.48700754400670576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>29099</v>
       </c>
@@ -2548,8 +5460,16 @@
       <c r="K62">
         <v>428</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0.3436619718309859</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>0.28169014084507044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>29101</v>
       </c>
@@ -2583,8 +5503,16 @@
       <c r="K63">
         <v>66</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>9.8445595854922283E-2</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>0.71632124352331605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>29113</v>
       </c>
@@ -2618,8 +5546,16 @@
       <c r="K64">
         <v>165</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>0.58461538461538465</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>0.45256410256410257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>29115</v>
       </c>
@@ -2653,8 +5589,16 @@
       <c r="K65">
         <v>39</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>0.41139240506329117</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>0.10759493670886076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>29117</v>
       </c>
@@ -2688,8 +5632,16 @@
       <c r="K66">
         <v>63</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>0.22911051212938005</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>0.30727762803234504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>29121</v>
       </c>
@@ -2723,8 +5675,16 @@
       <c r="K67">
         <v>323</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="2">(B67+C67)/(B67+C67+D67+E67+F67)</f>
+        <v>0.79710144927536231</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="3">(G67+H67)/(G67+H67+I67+J67+K67)</f>
+        <v>0.13285024154589373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>29123</v>
       </c>
@@ -2758,8 +5718,16 @@
       <c r="K68">
         <v>47</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>0.36007130124777181</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>0.29055258467023171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>29131</v>
       </c>
@@ -2793,8 +5761,16 @@
       <c r="K69">
         <v>77</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>0.4681933842239186</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>0.48854961832061067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>29133</v>
       </c>
@@ -2828,8 +5804,16 @@
       <c r="K70">
         <v>76</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="N70">
+        <f t="shared" si="2"/>
+        <v>0.22588235294117648</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>0.69176470588235295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>29145</v>
       </c>
@@ -2863,8 +5847,16 @@
       <c r="K71">
         <v>188</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="N71">
+        <f t="shared" si="2"/>
+        <v>7.5178997613365162E-2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>0.55489260143198094</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>29147</v>
       </c>
@@ -2898,8 +5890,16 @@
       <c r="K72">
         <v>179</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="N72">
+        <f t="shared" si="2"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>0.24107142857142858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>29157</v>
       </c>
@@ -2933,8 +5933,16 @@
       <c r="K73">
         <v>190</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="N73">
+        <f t="shared" si="2"/>
+        <v>5.5485498108448932E-2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0.48675914249684743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>29159</v>
       </c>
@@ -2968,8 +5976,16 @@
       <c r="K74">
         <v>331</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="N74">
+        <f t="shared" si="2"/>
+        <v>0.21321961620469082</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>0.45628997867803839</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>29161</v>
       </c>
@@ -3003,8 +6019,16 @@
       <c r="K75">
         <v>291</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="N75">
+        <f t="shared" si="2"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>0.40119047619047621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>29165</v>
       </c>
@@ -3038,8 +6062,16 @@
       <c r="K76">
         <v>54</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="N76">
+        <f t="shared" si="2"/>
+        <v>0.54098360655737709</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>0.24043715846994534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>29167</v>
       </c>
@@ -3073,8 +6105,16 @@
       <c r="K77">
         <v>132</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="N77">
+        <f t="shared" si="2"/>
+        <v>0.86178861788617889</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>0.15040650406504066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>29169</v>
       </c>
@@ -3108,8 +6148,16 @@
       <c r="K78">
         <v>47</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="N78">
+        <f t="shared" si="2"/>
+        <v>0.47085201793721976</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>0.52017937219730936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>29183</v>
       </c>
@@ -3143,8 +6191,16 @@
       <c r="K79">
         <v>1118</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="N79">
+        <f t="shared" si="2"/>
+        <v>0.50336826347305386</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="3"/>
+        <v>0.53031437125748504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>29187</v>
       </c>
@@ -3178,8 +6234,16 @@
       <c r="K80">
         <v>169</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="N80">
+        <f t="shared" si="2"/>
+        <v>0.10283018867924529</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>0.61037735849056607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>29189</v>
       </c>
@@ -3213,8 +6277,16 @@
       <c r="K81">
         <v>1247</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="N81">
+        <f t="shared" si="2"/>
+        <v>0.11815734370326055</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="3"/>
+        <v>0.45587795393359259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>29195</v>
       </c>
@@ -3248,8 +6320,16 @@
       <c r="K82">
         <v>148</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="N82">
+        <f t="shared" si="2"/>
+        <v>0.34462444771723122</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="3"/>
+        <v>0.57731958762886593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29207</v>
       </c>
@@ -3283,8 +6363,16 @@
       <c r="K83">
         <v>76</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="N83">
+        <f t="shared" si="2"/>
+        <v>0.55895196506550215</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>0.72052401746724892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>29213</v>
       </c>
@@ -3318,8 +6406,16 @@
       <c r="K84">
         <v>197</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="N84">
+        <f t="shared" si="2"/>
+        <v>9.8576122672508218E-2</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>0.5750273822562979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>29217</v>
       </c>
@@ -3353,8 +6449,16 @@
       <c r="K85">
         <v>233</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="N85">
+        <f t="shared" si="2"/>
+        <v>0.14427860696517414</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>0.53358208955223885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>29225</v>
       </c>
@@ -3388,8 +6492,16 @@
       <c r="K86">
         <v>76</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="N86">
+        <f t="shared" si="2"/>
+        <v>0.19884726224783861</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>0.63256484149855907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>36001</v>
       </c>
@@ -3423,8 +6535,16 @@
       <c r="K87">
         <v>354</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="N87">
+        <f t="shared" si="2"/>
+        <v>0.58699472759226712</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="3"/>
+        <v>0.13005272407732865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>36009</v>
       </c>
@@ -3458,8 +6578,16 @@
       <c r="K88">
         <v>241</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="N88">
+        <f t="shared" si="2"/>
+        <v>0.48342541436464087</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>36011</v>
       </c>
@@ -3493,8 +6621,16 @@
       <c r="K89">
         <v>454</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>0.23931623931623933</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="3"/>
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>36013</v>
       </c>
@@ -3528,8 +6664,16 @@
       <c r="K90">
         <v>386</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="N90">
+        <f t="shared" si="2"/>
+        <v>0.5934959349593496</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="3"/>
+        <v>2.8455284552845527E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>36017</v>
       </c>
@@ -3563,8 +6707,16 @@
       <c r="K91">
         <v>61</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="N91">
+        <f t="shared" si="2"/>
+        <v>0.68608414239482196</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="3"/>
+        <v>0.51779935275080902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>36019</v>
       </c>
@@ -3598,8 +6750,16 @@
       <c r="K92">
         <v>214</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="N92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>36021</v>
       </c>
@@ -3633,8 +6793,16 @@
       <c r="K93">
         <v>120</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="N93">
+        <f t="shared" si="2"/>
+        <v>0.72527472527472525</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>36023</v>
       </c>
@@ -3668,8 +6836,16 @@
       <c r="K94">
         <v>286</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="N94">
+        <f t="shared" si="2"/>
+        <v>0.25964010282776351</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="3"/>
+        <v>0.16452442159383032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>36025</v>
       </c>
@@ -3703,8 +6879,16 @@
       <c r="K95">
         <v>122</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="N95">
+        <f t="shared" si="2"/>
+        <v>0.50144927536231887</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="3"/>
+        <v>0.12173913043478261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>36027</v>
       </c>
@@ -3738,8 +6922,16 @@
       <c r="K96">
         <v>351</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="N96">
+        <f t="shared" si="2"/>
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>36029</v>
       </c>
@@ -3773,8 +6965,16 @@
       <c r="K97">
         <v>4883</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="N97">
+        <f t="shared" si="2"/>
+        <v>0.94896777927841014</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="3"/>
+        <v>0.35867258344588077</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>36031</v>
       </c>
@@ -3808,8 +7008,16 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="N98">
+        <f t="shared" si="2"/>
+        <v>0.23584905660377359</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="3"/>
+        <v>0.90801886792452835</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>36033</v>
       </c>
@@ -3843,8 +7051,16 @@
       <c r="K99">
         <v>82</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>0.57957244655581952</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="3"/>
+        <v>0.11401425178147269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>36035</v>
       </c>
@@ -3878,8 +7094,16 @@
       <c r="K100">
         <v>324</v>
       </c>
-    </row>
-    <row r="101">
+      <c r="N100">
+        <f t="shared" si="2"/>
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="3"/>
+        <v>1.5189873417721518E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>36037</v>
       </c>
@@ -3913,8 +7137,16 @@
       <c r="K101">
         <v>327</v>
       </c>
-    </row>
-    <row r="102">
+      <c r="N101">
+        <f t="shared" si="2"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="3"/>
+        <v>0.14888888888888888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>36039</v>
       </c>
@@ -3948,8 +7180,16 @@
       <c r="K102">
         <v>267</v>
       </c>
-    </row>
-    <row r="103">
+      <c r="N102">
+        <f t="shared" si="2"/>
+        <v>0.29962546816479402</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>36043</v>
       </c>
@@ -3983,8 +7223,16 @@
       <c r="K103">
         <v>315</v>
       </c>
-    </row>
-    <row r="104">
+      <c r="N103">
+        <f t="shared" si="2"/>
+        <v>0.56052631578947365</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="3"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>36045</v>
       </c>
@@ -4018,8 +7266,16 @@
       <c r="K104">
         <v>11</v>
       </c>
-    </row>
-    <row r="105">
+      <c r="N104">
+        <f t="shared" si="2"/>
+        <v>0.3605577689243028</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="3"/>
+        <v>0.30079681274900399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>36051</v>
       </c>
@@ -4053,8 +7309,16 @@
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106">
+      <c r="N105">
+        <f t="shared" si="2"/>
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="3"/>
+        <v>0.13821138211382114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>36053</v>
       </c>
@@ -4088,8 +7352,16 @@
       <c r="K106">
         <v>94</v>
       </c>
-    </row>
-    <row r="107">
+      <c r="N106">
+        <f t="shared" si="2"/>
+        <v>0.34758620689655173</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="3"/>
+        <v>0.2717241379310345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>36055</v>
       </c>
@@ -4123,8 +7395,16 @@
       <c r="K107">
         <v>566</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="N107">
+        <f t="shared" si="2"/>
+        <v>0.50267379679144386</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="3"/>
+        <v>0.12433155080213903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>36057</v>
       </c>
@@ -4158,8 +7438,16 @@
       <c r="K108">
         <v>136</v>
       </c>
-    </row>
-    <row r="109">
+      <c r="N108">
+        <f t="shared" si="2"/>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="3"/>
+        <v>0.15051020408163265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>36059</v>
       </c>
@@ -4193,8 +7481,16 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110">
+      <c r="N109">
+        <f t="shared" si="2"/>
+        <v>0.71219758064516125</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="3"/>
+        <v>0.36995967741935482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>36063</v>
       </c>
@@ -4228,8 +7524,16 @@
       <c r="K110">
         <v>529</v>
       </c>
-    </row>
-    <row r="111">
+      <c r="N110">
+        <f t="shared" si="2"/>
+        <v>0.60025706940874035</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="3"/>
+        <v>9.6401028277634956E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>36065</v>
       </c>
@@ -4263,8 +7567,16 @@
       <c r="K111">
         <v>805</v>
       </c>
-    </row>
-    <row r="112">
+      <c r="N111">
+        <f t="shared" si="2"/>
+        <v>0.55836575875486383</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="3"/>
+        <v>0.12354085603112841</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>36067</v>
       </c>
@@ -4298,8 +7610,16 @@
       <c r="K112">
         <v>1901</v>
       </c>
-    </row>
-    <row r="113">
+      <c r="N112">
+        <f t="shared" si="2"/>
+        <v>0.32510410469958356</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="3"/>
+        <v>0.28078524687685902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>36069</v>
       </c>
@@ -4333,8 +7653,16 @@
       <c r="K113">
         <v>302</v>
       </c>
-    </row>
-    <row r="114">
+      <c r="N113">
+        <f t="shared" si="2"/>
+        <v>0.75827814569536423</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>36071</v>
       </c>
@@ -4368,8 +7696,16 @@
       <c r="K114">
         <v>1080</v>
       </c>
-    </row>
-    <row r="115">
+      <c r="N114">
+        <f t="shared" si="2"/>
+        <v>0.32053345596688892</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="3"/>
+        <v>0.29317084387215453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>36073</v>
       </c>
@@ -4403,8 +7739,16 @@
       <c r="K115">
         <v>146</v>
       </c>
-    </row>
-    <row r="116">
+      <c r="N115">
+        <f t="shared" si="2"/>
+        <v>0.4315245478036176</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="3"/>
+        <v>0.23255813953488372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>36075</v>
       </c>
@@ -4438,8 +7782,16 @@
       <c r="K116">
         <v>352</v>
       </c>
-    </row>
-    <row r="117">
+      <c r="N116">
+        <f t="shared" si="2"/>
+        <v>0.61990950226244346</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="3"/>
+        <v>0.10407239819004525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>36079</v>
       </c>
@@ -4473,8 +7825,16 @@
       <c r="K117">
         <v>145</v>
       </c>
-    </row>
-    <row r="118">
+      <c r="N117">
+        <f t="shared" si="2"/>
+        <v>0.70270270270270274</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="3"/>
+        <v>9.6096096096096095E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>36083</v>
       </c>
@@ -4508,8 +7868,16 @@
       <c r="K118">
         <v>305</v>
       </c>
-    </row>
-    <row r="119">
+      <c r="N118">
+        <f t="shared" si="2"/>
+        <v>0.58565737051792832</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="3"/>
+        <v>0.18924302788844621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>36087</v>
       </c>
@@ -4543,8 +7911,16 @@
       <c r="K119">
         <v>1073</v>
       </c>
-    </row>
-    <row r="120">
+      <c r="N119">
+        <f t="shared" si="2"/>
+        <v>0.65421853388658369</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="3"/>
+        <v>0.11479944674965421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>36089</v>
       </c>
@@ -4578,8 +7954,16 @@
       <c r="K120">
         <v>188</v>
       </c>
-    </row>
-    <row r="121">
+      <c r="N120">
+        <f t="shared" si="2"/>
+        <v>0.60224719101123592</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="3"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>36093</v>
       </c>
@@ -4613,8 +7997,16 @@
       <c r="K121">
         <v>295</v>
       </c>
-    </row>
-    <row r="122">
+      <c r="N121">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>36095</v>
       </c>
@@ -4648,8 +8040,16 @@
       <c r="K122">
         <v>25</v>
       </c>
-    </row>
-    <row r="123">
+      <c r="N122">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="3"/>
+        <v>7.2072072072072071E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>36097</v>
       </c>
@@ -4683,8 +8083,16 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124">
+      <c r="N123" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O123" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>36099</v>
       </c>
@@ -4718,8 +8126,16 @@
       <c r="K124">
         <v>15</v>
       </c>
-    </row>
-    <row r="125">
+      <c r="N124">
+        <f t="shared" si="2"/>
+        <v>0.34564643799472294</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="3"/>
+        <v>0.80738786279683372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>36101</v>
       </c>
@@ -4753,8 +8169,16 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126">
+      <c r="N125">
+        <f t="shared" si="2"/>
+        <v>0.41502890173410406</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="3"/>
+        <v>0.31907514450867053</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>36103</v>
       </c>
@@ -4788,8 +8212,16 @@
       <c r="K126">
         <v>476</v>
       </c>
-    </row>
-    <row r="127">
+      <c r="N126">
+        <f t="shared" si="2"/>
+        <v>0.6816421378776143</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>36105</v>
       </c>
@@ -4823,8 +8255,16 @@
       <c r="K127">
         <v>237</v>
       </c>
-    </row>
-    <row r="128">
+      <c r="N127">
+        <f t="shared" si="2"/>
+        <v>0.70819672131147537</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>36107</v>
       </c>
@@ -4858,8 +8298,16 @@
       <c r="K128">
         <v>18</v>
       </c>
-    </row>
-    <row r="129">
+      <c r="N128">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="3"/>
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>36109</v>
       </c>
@@ -4893,8 +8341,16 @@
       <c r="K129">
         <v>226</v>
       </c>
-    </row>
-    <row r="130">
+      <c r="N129">
+        <f t="shared" si="2"/>
+        <v>0.52825552825552824</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="3"/>
+        <v>0.36117936117936117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>36111</v>
       </c>
@@ -4928,8 +8384,16 @@
       <c r="K130">
         <v>338</v>
       </c>
-    </row>
-    <row r="131">
+      <c r="N130">
+        <f t="shared" si="2"/>
+        <v>0.61059907834101379</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="3"/>
+        <v>0.11751152073732719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>36113</v>
       </c>
@@ -4963,8 +8427,16 @@
       <c r="K131">
         <v>324</v>
       </c>
-    </row>
-    <row r="132">
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="4">(B131+C131)/(B131+C131+D131+E131+F131)</f>
+        <v>0.70320855614973266</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="5">(G131+H131)/(G131+H131+I131+J131+K131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>36115</v>
       </c>
@@ -4998,8 +8470,16 @@
       <c r="K132">
         <v>278</v>
       </c>
-    </row>
-    <row r="133">
+      <c r="N132">
+        <f t="shared" si="4"/>
+        <v>0.83486238532110091</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="5"/>
+        <v>6.1162079510703364E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>36117</v>
       </c>
@@ -5033,8 +8513,16 @@
       <c r="K133">
         <v>127</v>
       </c>
-    </row>
-    <row r="134">
+      <c r="N133">
+        <f t="shared" si="4"/>
+        <v>0.57028112449799195</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>36119</v>
       </c>
@@ -5068,8 +8556,16 @@
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135">
+      <c r="N134">
+        <f t="shared" si="4"/>
+        <v>0.9997978572872448</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="5"/>
+        <v>0.24964625025267839</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>36121</v>
       </c>
@@ -5103,8 +8599,16 @@
       <c r="K135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136">
+      <c r="N135">
+        <f t="shared" si="4"/>
+        <v>4.4585987261146494E-2</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="5"/>
+        <v>0.66242038216560506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>39003</v>
       </c>
@@ -5138,8 +8642,16 @@
       <c r="K136">
         <v>30</v>
       </c>
-    </row>
-    <row r="137">
+      <c r="N136">
+        <f t="shared" si="4"/>
+        <v>0.20297462817147857</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="5"/>
+        <v>0.82064741907261596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>39007</v>
       </c>
@@ -5173,8 +8685,16 @@
       <c r="K137">
         <v>801</v>
       </c>
-    </row>
-    <row r="138">
+      <c r="N137">
+        <f t="shared" si="4"/>
+        <v>0.54621309370988447</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="5"/>
+        <v>0.38189987163029526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>39009</v>
       </c>
@@ -5208,8 +8728,16 @@
       <c r="K138">
         <v>38</v>
       </c>
-    </row>
-    <row r="139">
+      <c r="N138">
+        <f t="shared" si="4"/>
+        <v>0.61043478260869566</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="5"/>
+        <v>0.86608695652173917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>39013</v>
       </c>
@@ -5243,8 +8771,16 @@
       <c r="K139">
         <v>155</v>
       </c>
-    </row>
-    <row r="140">
+      <c r="N139">
+        <f t="shared" si="4"/>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="5"/>
+        <v>0.56577266922094505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>39017</v>
       </c>
@@ -5278,8 +8814,16 @@
       <c r="K140">
         <v>403</v>
       </c>
-    </row>
-    <row r="141">
+      <c r="N140">
+        <f t="shared" si="4"/>
+        <v>0.18682795698924731</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="5"/>
+        <v>0.51209677419354838</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>39019</v>
       </c>
@@ -5313,8 +8857,16 @@
       <c r="K141">
         <v>86</v>
       </c>
-    </row>
-    <row r="142">
+      <c r="N141">
+        <f t="shared" si="4"/>
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>39023</v>
       </c>
@@ -5348,8 +8900,16 @@
       <c r="K142">
         <v>221</v>
       </c>
-    </row>
-    <row r="143">
+      <c r="N142">
+        <f t="shared" si="4"/>
+        <v>0.82582837723024638</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="5"/>
+        <v>0.72642310960067968</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>39027</v>
       </c>
@@ -5383,8 +8943,16 @@
       <c r="K143">
         <v>44</v>
       </c>
-    </row>
-    <row r="144">
+      <c r="N143">
+        <f t="shared" si="4"/>
+        <v>0.38596491228070173</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="5"/>
+        <v>0.4631578947368421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>39031</v>
       </c>
@@ -5418,8 +8986,16 @@
       <c r="K144">
         <v>426</v>
       </c>
-    </row>
-    <row r="145">
+      <c r="N144">
+        <f t="shared" si="4"/>
+        <v>0.59147424511545288</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="5"/>
+        <v>0.45559502664298401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>39033</v>
       </c>
@@ -5453,8 +9029,16 @@
       <c r="K145">
         <v>29</v>
       </c>
-    </row>
-    <row r="146">
+      <c r="N145">
+        <f t="shared" si="4"/>
+        <v>0.21525885558583105</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="5"/>
+        <v>0.88101725703905542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>39035</v>
       </c>
@@ -5488,8 +9072,16 @@
       <c r="K146">
         <v>559</v>
       </c>
-    </row>
-    <row r="147">
+      <c r="N146">
+        <f t="shared" si="4"/>
+        <v>0.59828266419122766</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="5"/>
+        <v>0.74007890461824088</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>39037</v>
       </c>
@@ -5523,8 +9115,16 @@
       <c r="K147">
         <v>384</v>
       </c>
-    </row>
-    <row r="148">
+      <c r="N147">
+        <f t="shared" si="4"/>
+        <v>7.9510703363914373E-2</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="5"/>
+        <v>0.16055045871559634</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>39039</v>
       </c>
@@ -5558,8 +9158,16 @@
       <c r="K148">
         <v>176</v>
       </c>
-    </row>
-    <row r="149">
+      <c r="N148">
+        <f t="shared" si="4"/>
+        <v>0.2125984251968504</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="5"/>
+        <v>0.69641294838145229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>39043</v>
       </c>
@@ -5593,8 +9201,16 @@
       <c r="K149">
         <v>121</v>
       </c>
-    </row>
-    <row r="150">
+      <c r="N149">
+        <f t="shared" si="4"/>
+        <v>0.20151133501259447</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="5"/>
+        <v>0.76322418136020154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>39045</v>
       </c>
@@ -5628,8 +9244,16 @@
       <c r="K150">
         <v>245</v>
       </c>
-    </row>
-    <row r="151">
+      <c r="N150">
+        <f t="shared" si="4"/>
+        <v>0.64442567567567566</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="5"/>
+        <v>0.51266891891891897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>39047</v>
       </c>
@@ -5663,8 +9287,16 @@
       <c r="K151">
         <v>17</v>
       </c>
-    </row>
-    <row r="152">
+      <c r="N151">
+        <f t="shared" si="4"/>
+        <v>0.59872611464968151</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="5"/>
+        <v>0.87716105550500456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>39049</v>
       </c>
@@ -5698,8 +9330,16 @@
       <c r="K152">
         <v>868</v>
       </c>
-    </row>
-    <row r="153">
+      <c r="N152">
+        <f t="shared" si="4"/>
+        <v>0.60732625813077712</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="5"/>
+        <v>0.57822663471413904</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>39051</v>
       </c>
@@ -5733,8 +9373,16 @@
       <c r="K153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154">
+      <c r="N153">
+        <f t="shared" si="4"/>
+        <v>0.64442231075697209</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="5"/>
+        <v>0.94521912350597614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>39057</v>
       </c>
@@ -5768,8 +9416,16 @@
       <c r="K154">
         <v>160</v>
       </c>
-    </row>
-    <row r="155">
+      <c r="N154">
+        <f t="shared" si="4"/>
+        <v>0.1184995737425405</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="5"/>
+        <v>0.72463768115942029</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>39061</v>
       </c>
@@ -5803,8 +9459,16 @@
       <c r="K155">
         <v>832</v>
       </c>
-    </row>
-    <row r="156">
+      <c r="N155">
+        <f t="shared" si="4"/>
+        <v>0.80488766259361455</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="5"/>
+        <v>0.72467481277098933</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>39063</v>
       </c>
@@ -5838,8 +9502,16 @@
       <c r="K156">
         <v>120</v>
       </c>
-    </row>
-    <row r="157">
+      <c r="N156">
+        <f t="shared" si="4"/>
+        <v>0.61076233183856499</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="5"/>
+        <v>0.77040358744394621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>39065</v>
       </c>
@@ -5873,8 +9545,16 @@
       <c r="K157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158">
+      <c r="N157">
+        <f t="shared" si="4"/>
+        <v>0.11909090909090909</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="5"/>
+        <v>0.65363636363636368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>39069</v>
       </c>
@@ -5908,8 +9588,16 @@
       <c r="K158">
         <v>62</v>
       </c>
-    </row>
-    <row r="159">
+      <c r="N158">
+        <f t="shared" si="4"/>
+        <v>0.19878997407087295</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="5"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>39073</v>
       </c>
@@ -5943,8 +9631,16 @@
       <c r="K159">
         <v>230</v>
       </c>
-    </row>
-    <row r="160">
+      <c r="N159">
+        <f t="shared" si="4"/>
+        <v>0.45171339563862928</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>39077</v>
       </c>
@@ -5978,8 +9674,16 @@
       <c r="K160">
         <v>469</v>
       </c>
-    </row>
-    <row r="161">
+      <c r="N160">
+        <f t="shared" si="4"/>
+        <v>0.50602409638554213</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="5"/>
+        <v>0.14006024096385541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>39079</v>
       </c>
@@ -6013,8 +9717,16 @@
       <c r="K161">
         <v>86</v>
       </c>
-    </row>
-    <row r="162">
+      <c r="N161">
+        <f t="shared" si="4"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="5"/>
+        <v>0.2134387351778656</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>39081</v>
       </c>
@@ -6048,8 +9760,16 @@
       <c r="K162">
         <v>392</v>
       </c>
-    </row>
-    <row r="163">
+      <c r="N162">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="5"/>
+        <v>0.46267281105990782</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>39083</v>
       </c>
@@ -6083,8 +9803,16 @@
       <c r="K163">
         <v>540</v>
       </c>
-    </row>
-    <row r="164">
+      <c r="N163">
+        <f t="shared" si="4"/>
+        <v>0.35173642030276048</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="5"/>
+        <v>0.38201246660730187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>39085</v>
       </c>
@@ -6118,8 +9846,16 @@
       <c r="K164">
         <v>265</v>
       </c>
-    </row>
-    <row r="165">
+      <c r="N164">
+        <f t="shared" si="4"/>
+        <v>0.21509433962264152</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>39087</v>
       </c>
@@ -6153,8 +9889,16 @@
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166">
+      <c r="N165">
+        <f t="shared" si="4"/>
+        <v>0.50749464668094213</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="5"/>
+        <v>0.86081370449678796</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>39089</v>
       </c>
@@ -6188,8 +9932,16 @@
       <c r="K166">
         <v>130</v>
       </c>
-    </row>
-    <row r="167">
+      <c r="N166">
+        <f t="shared" si="4"/>
+        <v>0.61928616155291172</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="5"/>
+        <v>0.80400751408891669</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>39093</v>
       </c>
@@ -6223,8 +9975,16 @@
       <c r="K167">
         <v>557</v>
       </c>
-    </row>
-    <row r="168">
+      <c r="N167">
+        <f t="shared" si="4"/>
+        <v>0.62608695652173918</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="5"/>
+        <v>0.55652173913043479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>39095</v>
       </c>
@@ -6258,8 +10018,16 @@
       <c r="K168">
         <v>415</v>
       </c>
-    </row>
-    <row r="169">
+      <c r="N168">
+        <f t="shared" si="4"/>
+        <v>0.25350358143880414</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="5"/>
+        <v>0.76362503892868261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>39099</v>
       </c>
@@ -6293,8 +10061,16 @@
       <c r="K169">
         <v>85</v>
       </c>
-    </row>
-    <row r="170">
+      <c r="N169">
+        <f t="shared" si="4"/>
+        <v>0.79104477611940294</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="5"/>
+        <v>0.7819237147595357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>39101</v>
       </c>
@@ -6328,8 +10104,16 @@
       <c r="K170">
         <v>198</v>
       </c>
-    </row>
-    <row r="171">
+      <c r="N170">
+        <f t="shared" si="4"/>
+        <v>0.81404958677685946</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="5"/>
+        <v>0.70495867768595044</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>39103</v>
       </c>
@@ -6363,8 +10147,16 @@
       <c r="K171">
         <v>187</v>
       </c>
-    </row>
-    <row r="172">
+      <c r="N171">
+        <f t="shared" si="4"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="5"/>
+        <v>0.73975044563279857</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>39107</v>
       </c>
@@ -6398,8 +10190,16 @@
       <c r="K172">
         <v>266</v>
       </c>
-    </row>
-    <row r="173">
+      <c r="N172">
+        <f t="shared" si="4"/>
+        <v>0.58347676419965577</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="5"/>
+        <v>0.11531841652323579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>39109</v>
       </c>
@@ -6433,8 +10233,16 @@
       <c r="K173">
         <v>163</v>
       </c>
-    </row>
-    <row r="174">
+      <c r="N173">
+        <f t="shared" si="4"/>
+        <v>0.51604278074866305</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="5"/>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>39113</v>
       </c>
@@ -6468,8 +10276,16 @@
       <c r="K174">
         <v>1752</v>
       </c>
-    </row>
-    <row r="175">
+      <c r="N174">
+        <f t="shared" si="4"/>
+        <v>0.74628593478680305</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="5"/>
+        <v>0.53212425236349603</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>39119</v>
       </c>
@@ -6503,8 +10319,16 @@
       <c r="K175">
         <v>386</v>
       </c>
-    </row>
-    <row r="176">
+      <c r="N175">
+        <f t="shared" si="4"/>
+        <v>0.62371134020618557</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="5"/>
+        <v>0.47680412371134023</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>39123</v>
       </c>
@@ -6538,8 +10362,16 @@
       <c r="K176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177">
+      <c r="N176">
+        <f t="shared" si="4"/>
+        <v>0.3503893214682981</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="5"/>
+        <v>0.57508342602892104</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>39129</v>
       </c>
@@ -6573,8 +10405,16 @@
       <c r="K177">
         <v>69</v>
       </c>
-    </row>
-    <row r="178">
+      <c r="N177">
+        <f t="shared" si="4"/>
+        <v>0.61369622475856012</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="5"/>
+        <v>0.7655838454784899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>39133</v>
       </c>
@@ -6608,8 +10448,16 @@
       <c r="K178">
         <v>754</v>
       </c>
-    </row>
-    <row r="179">
+      <c r="N178">
+        <f t="shared" si="4"/>
+        <v>0.5903814262023217</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="5"/>
+        <v>0.28689883913764513</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>39135</v>
       </c>
@@ -6643,8 +10491,16 @@
       <c r="K179">
         <v>523</v>
       </c>
-    </row>
-    <row r="180">
+      <c r="N179">
+        <f t="shared" si="4"/>
+        <v>0.46182152713891444</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="5"/>
+        <v>0.40110395584176634</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>39137</v>
       </c>
@@ -6678,8 +10534,16 @@
       <c r="K180">
         <v>172</v>
       </c>
-    </row>
-    <row r="181">
+      <c r="N180">
+        <f t="shared" si="4"/>
+        <v>0.43579766536964981</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>39139</v>
       </c>
@@ -6713,8 +10577,16 @@
       <c r="K181">
         <v>209</v>
       </c>
-    </row>
-    <row r="182">
+      <c r="N181">
+        <f t="shared" si="4"/>
+        <v>0.1855583543240974</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="5"/>
+        <v>0.6213266162888329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>39143</v>
       </c>
@@ -6748,8 +10620,16 @@
       <c r="K182">
         <v>175</v>
       </c>
-    </row>
-    <row r="183">
+      <c r="N182">
+        <f t="shared" si="4"/>
+        <v>0.42602495543672014</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="5"/>
+        <v>0.73885918003565065</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>39145</v>
       </c>
@@ -6783,8 +10663,16 @@
       <c r="K183">
         <v>65</v>
       </c>
-    </row>
-    <row r="184">
+      <c r="N183">
+        <f t="shared" si="4"/>
+        <v>0.89404553415061294</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="5"/>
+        <v>0.47197898423817863</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>39149</v>
       </c>
@@ -6818,8 +10706,16 @@
       <c r="K184">
         <v>22</v>
       </c>
-    </row>
-    <row r="185">
+      <c r="N184">
+        <f t="shared" si="4"/>
+        <v>0.45525291828793774</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="5"/>
+        <v>0.54863813229571989</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>39151</v>
       </c>
@@ -6853,8 +10749,16 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186">
+      <c r="N185">
+        <f t="shared" si="4"/>
+        <v>0.64086956521739136</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="5"/>
+        <v>0.64173913043478259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>39153</v>
       </c>
@@ -6888,8 +10792,16 @@
       <c r="K186">
         <v>72</v>
       </c>
-    </row>
-    <row r="187">
+      <c r="N186">
+        <f t="shared" si="4"/>
+        <v>0.77879038939519474</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="5"/>
+        <v>0.80530240265120134</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>39155</v>
       </c>
@@ -6923,8 +10835,16 @@
       <c r="K187">
         <v>149</v>
       </c>
-    </row>
-    <row r="188">
+      <c r="N187">
+        <f t="shared" si="4"/>
+        <v>0.78454935622317601</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="5"/>
+        <v>0.55364806866952787</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>39157</v>
       </c>
@@ -6958,8 +10878,16 @@
       <c r="K188">
         <v>284</v>
       </c>
-    </row>
-    <row r="189">
+      <c r="N188">
+        <f t="shared" si="4"/>
+        <v>0.66397415185783526</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="5"/>
+        <v>0.16316639741518579</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>39159</v>
       </c>
@@ -6993,8 +10921,16 @@
       <c r="K189">
         <v>645</v>
       </c>
-    </row>
-    <row r="190">
+      <c r="N189">
+        <f t="shared" si="4"/>
+        <v>0.60873287671232879</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="5"/>
+        <v>0.36815068493150682</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>39167</v>
       </c>
@@ -7028,8 +10964,16 @@
       <c r="K190">
         <v>405</v>
       </c>
-    </row>
-    <row r="191">
+      <c r="N190">
+        <f t="shared" si="4"/>
+        <v>0.66696349065004457</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="5"/>
+        <v>0.47462154942119322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>39169</v>
       </c>
@@ -7063,8 +11007,16 @@
       <c r="K191">
         <v>206</v>
       </c>
-    </row>
-    <row r="192">
+      <c r="N191">
+        <f t="shared" si="4"/>
+        <v>0.59898045879354289</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="5"/>
+        <v>0.51231945624468989</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>39171</v>
       </c>
@@ -7098,8 +11050,16 @@
       <c r="K192">
         <v>17</v>
       </c>
-    </row>
-    <row r="193">
+      <c r="N192">
+        <f t="shared" si="4"/>
+        <v>0.55147058823529416</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="5"/>
+        <v>0.88786764705882348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>39173</v>
       </c>
@@ -7133,8 +11093,16 @@
       <c r="K193">
         <v>144</v>
       </c>
-    </row>
-    <row r="194">
+      <c r="N193">
+        <f t="shared" si="4"/>
+        <v>0.84039466047591416</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="5"/>
+        <v>0.67846778874056879</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>39175</v>
       </c>
@@ -7168,8 +11136,16 @@
       <c r="K194">
         <v>548</v>
       </c>
-    </row>
-    <row r="195">
+      <c r="N194">
+        <f t="shared" si="4"/>
+        <v>0.50399201596806387</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="5"/>
+        <v>0.35528942115768464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>45013</v>
       </c>
@@ -7203,8 +11179,16 @@
       <c r="K195">
         <v>139</v>
       </c>
-    </row>
-    <row r="196">
+      <c r="N195">
+        <f t="shared" ref="N195:N222" si="6">(B195+C195)/(B195+C195+D195+E195+F195)</f>
+        <v>0.29681978798586572</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O222" si="7">(G195+H195)/(G195+H195+I195+J195+K195)</f>
+        <v>0.2756183745583039</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>45019</v>
       </c>
@@ -7238,8 +11222,16 @@
       <c r="K196">
         <v>490</v>
       </c>
-    </row>
-    <row r="197">
+      <c r="N196">
+        <f t="shared" si="6"/>
+        <v>0.76234855545200375</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="7"/>
+        <v>0.39235787511649578</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>45043</v>
       </c>
@@ -7273,8 +11265,16 @@
       <c r="K197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198">
+      <c r="N197">
+        <f t="shared" si="6"/>
+        <v>0.67613636363636365</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="7"/>
+        <v>0.50757575757575757</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>45045</v>
       </c>
@@ -7308,8 +11308,16 @@
       <c r="K198">
         <v>666</v>
       </c>
-    </row>
-    <row r="199">
+      <c r="N198">
+        <f t="shared" si="6"/>
+        <v>0.64862204724409445</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="7"/>
+        <v>0.24114173228346455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>45051</v>
       </c>
@@ -7343,8 +11351,16 @@
       <c r="K199">
         <v>588</v>
       </c>
-    </row>
-    <row r="200">
+      <c r="N199">
+        <f t="shared" si="6"/>
+        <v>0.73669972948602347</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="7"/>
+        <v>0.33453561767357981</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>45055</v>
       </c>
@@ -7378,8 +11394,16 @@
       <c r="K200">
         <v>63</v>
       </c>
-    </row>
-    <row r="201">
+      <c r="N200">
+        <f t="shared" si="6"/>
+        <v>0.69990412272291469</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>45063</v>
       </c>
@@ -7413,8 +11437,16 @@
       <c r="K201">
         <v>453</v>
       </c>
-    </row>
-    <row r="202">
+      <c r="N201">
+        <f t="shared" si="6"/>
+        <v>0.603515625</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="7"/>
+        <v>0.404296875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>45079</v>
       </c>
@@ -7448,8 +11480,16 @@
       <c r="K202">
         <v>820</v>
       </c>
-    </row>
-    <row r="203">
+      <c r="N202">
+        <f t="shared" si="6"/>
+        <v>0.12661789532920653</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="7"/>
+        <v>0.35453010692177828</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>45091</v>
       </c>
@@ -7483,8 +11523,16 @@
       <c r="K203">
         <v>513</v>
       </c>
-    </row>
-    <row r="204">
+      <c r="N203">
+        <f t="shared" si="6"/>
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="7"/>
+        <v>0.33435897435897438</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>49003</v>
       </c>
@@ -7518,8 +11566,16 @@
       <c r="K204">
         <v>229</v>
       </c>
-    </row>
-    <row r="205">
+      <c r="N204">
+        <f t="shared" si="6"/>
+        <v>0.60167364016736402</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="7"/>
+        <v>0.47698744769874479</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>49005</v>
       </c>
@@ -7553,8 +11609,16 @@
       <c r="K205">
         <v>822</v>
       </c>
-    </row>
-    <row r="206">
+      <c r="N205">
+        <f t="shared" si="6"/>
+        <v>0.68559837728194728</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="7"/>
+        <v>0.27653820148749153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>49007</v>
       </c>
@@ -7588,8 +11652,16 @@
       <c r="K206">
         <v>40</v>
       </c>
-    </row>
-    <row r="207">
+      <c r="N206">
+        <f t="shared" si="6"/>
+        <v>0.80195258019525806</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="7"/>
+        <v>0.58856345885634587</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>49011</v>
       </c>
@@ -7623,8 +11695,16 @@
       <c r="K207">
         <v>1420</v>
       </c>
-    </row>
-    <row r="208">
+      <c r="N207">
+        <f t="shared" si="6"/>
+        <v>0.71364576154376291</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="7"/>
+        <v>0.34321157822191595</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>49013</v>
       </c>
@@ -7658,8 +11738,16 @@
       <c r="K208">
         <v>45</v>
       </c>
-    </row>
-    <row r="209">
+      <c r="N208">
+        <f t="shared" si="6"/>
+        <v>0.55312954876273657</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="7"/>
+        <v>0.52692867540029109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>49021</v>
       </c>
@@ -7693,8 +11781,16 @@
       <c r="K209">
         <v>526</v>
       </c>
-    </row>
-    <row r="210">
+      <c r="N209">
+        <f t="shared" si="6"/>
+        <v>0.33237822349570201</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="7"/>
+        <v>0.28557784145176696</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>49035</v>
       </c>
@@ -7728,8 +11824,16 @@
       <c r="K210">
         <v>3368</v>
       </c>
-    </row>
-    <row r="211">
+      <c r="N210">
+        <f t="shared" si="6"/>
+        <v>0.40762205830698983</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="7"/>
+        <v>0.28890059711977523</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>49043</v>
       </c>
@@ -7763,8 +11867,16 @@
       <c r="K211">
         <v>2051</v>
       </c>
-    </row>
-    <row r="212">
+      <c r="N211">
+        <f t="shared" si="6"/>
+        <v>0.71504548635409382</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="7"/>
+        <v>0.47319804058782367</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>49045</v>
       </c>
@@ -7798,8 +11910,16 @@
       <c r="K212">
         <v>380</v>
       </c>
-    </row>
-    <row r="213">
+      <c r="N212">
+        <f t="shared" si="6"/>
+        <v>0.84010152284263961</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="7"/>
+        <v>0.35406091370558374</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>49047</v>
       </c>
@@ -7833,8 +11953,16 @@
       <c r="K213">
         <v>31</v>
       </c>
-    </row>
-    <row r="214">
+      <c r="N213">
+        <f t="shared" si="6"/>
+        <v>0.34723569350145489</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="7"/>
+        <v>0.49854510184287099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>49049</v>
       </c>
@@ -7868,8 +11996,16 @@
       <c r="K214">
         <v>3409</v>
       </c>
-    </row>
-    <row r="215">
+      <c r="N214">
+        <f t="shared" si="6"/>
+        <v>0.46215556330659224</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="7"/>
+        <v>0.3751086012163336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>49051</v>
       </c>
@@ -7903,8 +12039,16 @@
       <c r="K215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216">
+      <c r="N215">
+        <f t="shared" si="6"/>
+        <v>0.63346613545816732</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="7"/>
+        <v>0.47011952191235062</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>49053</v>
       </c>
@@ -7938,8 +12082,16 @@
       <c r="K216">
         <v>1033</v>
       </c>
-    </row>
-    <row r="217">
+      <c r="N216">
+        <f t="shared" si="6"/>
+        <v>0.41001747233546881</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="7"/>
+        <v>0.25800815375655212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>51069</v>
       </c>
@@ -7973,8 +12125,16 @@
       <c r="K217">
         <v>163</v>
       </c>
-    </row>
-    <row r="218">
+      <c r="N217">
+        <f t="shared" si="6"/>
+        <v>0.8503118503118503</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="7"/>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>51107</v>
       </c>
@@ -8008,8 +12168,16 @@
       <c r="K218">
         <v>143</v>
       </c>
-    </row>
-    <row r="219">
+      <c r="N218">
+        <f t="shared" si="6"/>
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="7"/>
+        <v>0.13756613756613756</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>51121</v>
       </c>
@@ -8043,8 +12211,16 @@
       <c r="K219">
         <v>435</v>
       </c>
-    </row>
-    <row r="220">
+      <c r="N219">
+        <f t="shared" si="6"/>
+        <v>0.76184210526315788</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="7"/>
+        <v>0.21578947368421053</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>51179</v>
       </c>
@@ -8078,8 +12254,16 @@
       <c r="K220">
         <v>289</v>
       </c>
-    </row>
-    <row r="221">
+      <c r="N220">
+        <f t="shared" si="6"/>
+        <v>0.27235772357723576</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="7"/>
+        <v>0.17073170731707318</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>51191</v>
       </c>
@@ -8113,8 +12297,16 @@
       <c r="K221">
         <v>300</v>
       </c>
-    </row>
-    <row r="222">
+      <c r="N221">
+        <f t="shared" si="6"/>
+        <v>0.32574031890660593</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="7"/>
+        <v>0.19134396355353075</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>51710</v>
       </c>
@@ -8148,8 +12340,17 @@
       <c r="K222">
         <v>274</v>
       </c>
+      <c r="N222">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="7"/>
+        <v>0.18849206349206349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>